--- a/Hardware/BOM_智能手表OV-Watch.xlsx
+++ b/Hardware/BOM_智能手表OV-Watch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAAKepler452B-G14\MyProject\OV-Watch\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64487C5C-4EEA-44E1-BF05-373F8DA9E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53880CC2-EBF4-41C5-9BEC-21AA630EF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="113">
   <si>
     <t>No</t>
   </si>
@@ -369,6 +369,28 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁吸充电盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2pinX2.84</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -394,13 +416,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -415,9 +457,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -724,14 +769,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="20.765625" customWidth="1"/>
-    <col min="5" max="5" width="21.23046875" customWidth="1"/>
+    <col min="5" max="5" width="22.84375" customWidth="1"/>
+    <col min="7" max="7" width="17.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -770,31 +816,32 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -842,29 +889,33 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -891,18 +942,24 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -1031,26 +1088,30 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1060,26 +1121,30 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1106,26 +1171,30 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1184,37 +1253,41 @@
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K20" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>76</v>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -1288,26 +1361,30 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1317,15 +1394,21 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
@@ -1385,29 +1468,32 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
